--- a/Mifos Automation Excels/Client/4029-CREATE-ACTIVECLIENT-WITHDRAW-WITHOUT-REASON.xlsx
+++ b/Mifos Automation Excels/Client/4029-CREATE-ACTIVECLIENT-WITHDRAW-WITHOUT-REASON.xlsx
@@ -95,10 +95,10 @@
     <t>verify1</t>
   </si>
   <si>
-    <t>validation.msg.client.withdrawalDate.cannot.be.blank</t>
-  </si>
-  <si>
     <t>WithdrawClient</t>
+  </si>
+  <si>
+    <t>Client Withrawal Date cannot be blank</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -607,7 +607,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>12</v>
@@ -626,7 +626,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
